--- a/dataset_test.xlsx
+++ b/dataset_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\qiqilu\Project\2024 Foundation model\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073CBAFD-A578-4E06-9766-FED83AA8F586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC074AE3-33EF-4454-B3F9-3C9EC5E9CF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="1800" windowWidth="19095" windowHeight="19095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5715" yWindow="1305" windowWidth="17145" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4726" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4817" uniqueCount="908">
   <si>
     <t>path_lr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2953,6 +2953,157 @@
   </si>
   <si>
     <t>E:\qiqilu\datasets\SR-CACO-2\transformed\test_patch.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim-actin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\SIMActin\transformed\test\channel_0\WF_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\SIMActin\transformed\test\channel_0\SIM_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\SIMActin\transformed\test_2d.txt</t>
+  </si>
+  <si>
+    <t>sim-microtubule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\SIMMicrotubule\transformed\test\channel_0\WF_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\SIMMicrotubule\transformed\test\channel_0\SIM_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\SIMMicrotubule\transformed\test_2d.txt</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BPAE\transformed\test\two_photon_1</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BPAE\transformed\test\SRRF</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BPAE\transformed\test\two_photon_ave</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BPAE\transformed\test.txt</t>
+  </si>
+  <si>
+    <t>bpae-dn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpae-dcv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuclei/F-actin/Mito</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuclei, F-actin (filamentous actin), and Mito (mitochondria)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alexa Fluor 488</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAPI, Alexa Fluor 488 phalloidin, and MitoTracker Red CMXRos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom-built two-photon fluorescence microscopy system. The custom setup consists of an objective lens with 40x magnification (0.8 numerical aperture and 3.5 mm working distance). The two-photon excitation wavelength is 800 nm, sample power is six mW, pixel dwell-time is 12 μs, and the emission wavelength filter is from 300-700 nm.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 x 200 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generated using Super-resolution radial fluctuation (SRRF) deconvolution method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\VMSIM\transformed\Fig3\test.txt</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\VMSIM\transformed\Fig3\test\mito\WF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\VMSIM\transformed\Fig3\test\er\WF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\VMSIM\transformed\Fig3\test\mito\SIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\VMSIM\transformed\Fig3\test\er\SIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>live U2OS cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MitoTracker Green</t>
+  </si>
+  <si>
+    <t>ER-Tracker Red</t>
+  </si>
+  <si>
+    <t>Nikon Eclipse 90i wide-field fluorescence microscope equipped with a Nikon Plan Fluor 40x, 0.75 NA objective. Excitation wavelength 561 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wide-field fluorescence microscope with 60×, 1.45 NA oil-immersion objective, Excitation wavelength 488 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wide-field fluorescence microscope with 60×, 1.45 NA oil-immersion objective, Excitation wavelength 647 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 x 40 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nikon SIM setup (Eclipse T1) microscope in a structure illumination microscopy (SIM) super-resolution mode, the microscope is fitted with a Plan Apochromat TIRF 100X, 1.49NA objective, wavelength 640 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure illumination microscopy (SIM) with 60×, 1.45 NA oil-immersion objective, Excitation wavelength 488 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure illumination microscopy (SIM) with 60×, 1.45 NA oil-immersion objective, Excitation wavelength 647 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vmsim-mito-sr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vmsim-er-sr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vmsim-mito-dcv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vmsim-er-dcv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80 x 80 nm. nearest interpolation with a factor of 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3036,7 +3187,63 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3817,10 +4024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58090EBB-A764-4E1D-A677-EA141CD033B7}">
-  <dimension ref="A1:U308"/>
+  <dimension ref="A1:U317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5614,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>600</v>
@@ -5679,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>601</v>
@@ -5744,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>602</v>
@@ -5809,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>603</v>
@@ -5874,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>604</v>
@@ -5939,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>605</v>
@@ -6003,8 +6210,8 @@
       <c r="G34" s="5">
         <v>-2</v>
       </c>
-      <c r="H34" s="1">
-        <v>19</v>
+      <c r="H34" s="2">
+        <v>18</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>600</v>
@@ -6068,8 +6275,8 @@
       <c r="G35" s="5">
         <v>-2</v>
       </c>
-      <c r="H35" s="1">
-        <v>19</v>
+      <c r="H35" s="2">
+        <v>18</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>601</v>
@@ -6133,8 +6340,8 @@
       <c r="G36" s="5">
         <v>-2</v>
       </c>
-      <c r="H36" s="1">
-        <v>19</v>
+      <c r="H36" s="2">
+        <v>18</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>602</v>
@@ -6198,8 +6405,8 @@
       <c r="G37" s="5">
         <v>-2</v>
       </c>
-      <c r="H37" s="1">
-        <v>19</v>
+      <c r="H37" s="2">
+        <v>18</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>603</v>
@@ -6263,8 +6470,8 @@
       <c r="G38" s="5">
         <v>-2</v>
       </c>
-      <c r="H38" s="1">
-        <v>19</v>
+      <c r="H38" s="2">
+        <v>18</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>604</v>
@@ -6328,8 +6535,8 @@
       <c r="G39" s="5">
         <v>-2</v>
       </c>
-      <c r="H39" s="1">
-        <v>19</v>
+      <c r="H39" s="2">
+        <v>18</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>605</v>
@@ -6394,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>600</v>
@@ -6459,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>601</v>
@@ -6524,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>602</v>
@@ -6589,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>603</v>
@@ -6654,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>604</v>
@@ -6719,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>44</v>
@@ -6784,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>45</v>
@@ -6849,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>46</v>
@@ -6914,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>47</v>
@@ -6979,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>48</v>
@@ -7044,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>49</v>
@@ -7109,7 +7316,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>50</v>
@@ -7174,7 +7381,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>51</v>
@@ -7239,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>52</v>
@@ -7304,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>53</v>
@@ -7369,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>54</v>
@@ -7402,7 +7609,7 @@
         <v>19</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="T55" s="1" t="s">
         <v>21</v>
@@ -7434,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>55</v>
@@ -7499,7 +7706,7 @@
         <v>-2</v>
       </c>
       <c r="H57" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>44</v>
@@ -7565,7 +7772,7 @@
         <v>-2</v>
       </c>
       <c r="H58" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>45</v>
@@ -7631,7 +7838,7 @@
         <v>-2</v>
       </c>
       <c r="H59" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>46</v>
@@ -7697,7 +7904,7 @@
         <v>-2</v>
       </c>
       <c r="H60" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>47</v>
@@ -7763,7 +7970,7 @@
         <v>-2</v>
       </c>
       <c r="H61" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>48</v>
@@ -7829,7 +8036,7 @@
         <v>-2</v>
       </c>
       <c r="H62" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>49</v>
@@ -7895,7 +8102,7 @@
         <v>-2</v>
       </c>
       <c r="H63" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>50</v>
@@ -7961,7 +8168,7 @@
         <v>-2</v>
       </c>
       <c r="H64" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>51</v>
@@ -8027,7 +8234,7 @@
         <v>-2</v>
       </c>
       <c r="H65" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>52</v>
@@ -8093,7 +8300,7 @@
         <v>-2</v>
       </c>
       <c r="H66" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>53</v>
@@ -8159,7 +8366,7 @@
         <v>-2</v>
       </c>
       <c r="H67" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>54</v>
@@ -8225,7 +8432,7 @@
         <v>-2</v>
       </c>
       <c r="H68" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>55</v>
@@ -8291,7 +8498,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>44</v>
@@ -8357,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>45</v>
@@ -8423,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>46</v>
@@ -8489,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>47</v>
@@ -8555,7 +8762,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>48</v>
@@ -8621,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>49</v>
@@ -8687,7 +8894,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>50</v>
@@ -8753,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>51</v>
@@ -8819,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>52</v>
@@ -8885,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>53</v>
@@ -8951,7 +9158,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>54</v>
@@ -19385,7 +19592,7 @@
         <v>62</v>
       </c>
       <c r="T237" s="1" t="s">
-        <v>833</v>
+        <v>900</v>
       </c>
       <c r="U237" s="1" t="s">
         <v>63</v>
@@ -23652,7 +23859,7 @@
         <v>29</v>
       </c>
       <c r="Q302" s="2" t="s">
-        <v>310</v>
+        <v>883</v>
       </c>
       <c r="R302" s="2" t="s">
         <v>369</v>
@@ -23919,7 +24126,7 @@
         <v>317</v>
       </c>
       <c r="R306" s="1" t="s">
-        <v>374</v>
+        <v>896</v>
       </c>
       <c r="S306" s="1" t="s">
         <v>363</v>
@@ -24038,7 +24245,7 @@
         <v>810</v>
       </c>
       <c r="N308" s="1" t="str">
-        <f t="shared" ref="N308" si="41">IF(E308="dcv","deconvolution",IF(E308="dn","denoising",""))</f>
+        <f t="shared" ref="N308:N316" si="41">IF(E308="dcv","deconvolution",IF(E308="dn","denoising",""))</f>
         <v>denoising</v>
       </c>
       <c r="O308" s="1" t="s">
@@ -24063,25 +24270,489 @@
         <v>363</v>
       </c>
     </row>
+    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B309" t="s">
+        <v>867</v>
+      </c>
+      <c r="C309" s="2">
+        <v>3</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F309" s="6">
+        <v>1</v>
+      </c>
+      <c r="G309" s="5">
+        <v>1</v>
+      </c>
+      <c r="H309" s="7">
+        <v>6</v>
+      </c>
+      <c r="I309" t="s">
+        <v>868</v>
+      </c>
+      <c r="K309" t="s">
+        <v>869</v>
+      </c>
+      <c r="M309" t="s">
+        <v>870</v>
+      </c>
+      <c r="N309" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>deconvolution</v>
+      </c>
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C310" s="2">
+        <v>3</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F310" s="6">
+        <v>1</v>
+      </c>
+      <c r="G310" s="5">
+        <v>1</v>
+      </c>
+      <c r="H310" s="7">
+        <v>44</v>
+      </c>
+      <c r="I310" t="s">
+        <v>872</v>
+      </c>
+      <c r="K310" t="s">
+        <v>873</v>
+      </c>
+      <c r="M310" t="s">
+        <v>874</v>
+      </c>
+      <c r="N310" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>deconvolution</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C311" s="2">
+        <v>2</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F311" s="6">
+        <v>1</v>
+      </c>
+      <c r="G311" s="5">
+        <v>1</v>
+      </c>
+      <c r="H311" s="7">
+        <v>6</v>
+      </c>
+      <c r="I311" t="s">
+        <v>875</v>
+      </c>
+      <c r="K311" t="s">
+        <v>876</v>
+      </c>
+      <c r="M311" t="s">
+        <v>878</v>
+      </c>
+      <c r="N311" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>deconvolution</v>
+      </c>
+      <c r="O311" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="P311" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q311" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="R311" t="s">
+        <v>885</v>
+      </c>
+      <c r="S311" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="T311" t="s">
+        <v>887</v>
+      </c>
+      <c r="U311" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C312" s="2">
+        <v>2</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F312" s="6">
+        <v>1</v>
+      </c>
+      <c r="G312" s="5">
+        <v>1</v>
+      </c>
+      <c r="H312" s="7">
+        <v>6</v>
+      </c>
+      <c r="I312" t="s">
+        <v>875</v>
+      </c>
+      <c r="K312" t="s">
+        <v>877</v>
+      </c>
+      <c r="M312" t="s">
+        <v>878</v>
+      </c>
+      <c r="N312" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>denoising</v>
+      </c>
+      <c r="O312" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="P312" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q312" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="R312" t="s">
+        <v>885</v>
+      </c>
+      <c r="S312" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="T312" t="s">
+        <v>885</v>
+      </c>
+      <c r="U312" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C313" s="2">
+        <v>2</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F313" s="6">
+        <v>2</v>
+      </c>
+      <c r="G313" s="5">
+        <v>1</v>
+      </c>
+      <c r="H313" s="7">
+        <v>658</v>
+      </c>
+      <c r="I313" t="s">
+        <v>889</v>
+      </c>
+      <c r="K313" t="s">
+        <v>891</v>
+      </c>
+      <c r="M313" t="s">
+        <v>888</v>
+      </c>
+      <c r="N313" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O313" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="P313" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q313" t="s">
+        <v>894</v>
+      </c>
+      <c r="R313" t="s">
+        <v>897</v>
+      </c>
+      <c r="S313" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="T313" t="s">
+        <v>901</v>
+      </c>
+      <c r="U313" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C314" s="2">
+        <v>2</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F314" s="6">
+        <v>2</v>
+      </c>
+      <c r="G314" s="5">
+        <v>1</v>
+      </c>
+      <c r="H314" s="7">
+        <v>658</v>
+      </c>
+      <c r="I314" t="s">
+        <v>890</v>
+      </c>
+      <c r="K314" t="s">
+        <v>892</v>
+      </c>
+      <c r="M314" t="s">
+        <v>888</v>
+      </c>
+      <c r="N314" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O314" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="P314" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q314" t="s">
+        <v>895</v>
+      </c>
+      <c r="R314" t="s">
+        <v>898</v>
+      </c>
+      <c r="S314" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="T314" t="s">
+        <v>902</v>
+      </c>
+      <c r="U314" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C315" s="2">
+        <v>2</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F315" s="6">
+        <v>1</v>
+      </c>
+      <c r="G315" s="5">
+        <v>-2</v>
+      </c>
+      <c r="H315" s="7">
+        <v>658</v>
+      </c>
+      <c r="I315" t="s">
+        <v>889</v>
+      </c>
+      <c r="K315" t="s">
+        <v>891</v>
+      </c>
+      <c r="M315" t="s">
+        <v>888</v>
+      </c>
+      <c r="N315" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>deconvolution</v>
+      </c>
+      <c r="O315" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="P315" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q315" t="s">
+        <v>895</v>
+      </c>
+      <c r="R315" t="s">
+        <v>897</v>
+      </c>
+      <c r="S315" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="T315" t="s">
+        <v>901</v>
+      </c>
+      <c r="U315" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C316" s="2">
+        <v>2</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F316" s="6">
+        <v>1</v>
+      </c>
+      <c r="G316" s="5">
+        <v>-2</v>
+      </c>
+      <c r="H316" s="7">
+        <v>658</v>
+      </c>
+      <c r="I316" t="s">
+        <v>890</v>
+      </c>
+      <c r="K316" t="s">
+        <v>892</v>
+      </c>
+      <c r="M316" t="s">
+        <v>888</v>
+      </c>
+      <c r="N316" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>deconvolution</v>
+      </c>
+      <c r="O316" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="P316" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R316" t="s">
+        <v>898</v>
+      </c>
+      <c r="S316" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="T316" t="s">
+        <v>902</v>
+      </c>
+      <c r="U316" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U317" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E163 E166 E169:E271 E273:E308">
-    <cfRule type="containsText" dxfId="71" priority="117" operator="containsText" text="iso">
+  <conditionalFormatting sqref="E1:E163 E166 E169:E271 E273:E313 E315">
+    <cfRule type="containsText" dxfId="79" priority="125" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",E1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="126" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="127" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="120" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="76" priority="128" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E189:E194">
+    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",E189)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="78" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="79" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="80" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",E189)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E195:E200">
+    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",E195)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="76" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",E195)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E207">
     <cfRule type="containsText" dxfId="67" priority="69" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E189)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E207)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="66" priority="70" operator="equal">
       <formula>"dn"</formula>
@@ -24090,12 +24761,12 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="64" priority="72" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E189)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",E207)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E195:E200">
+  <conditionalFormatting sqref="E214">
     <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E195)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E214)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="62" priority="66" operator="equal">
       <formula>"dn"</formula>
@@ -24104,12 +24775,12 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="60" priority="68" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E195)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",E214)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E207">
+  <conditionalFormatting sqref="E221">
     <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E207)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E221)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
       <formula>"dn"</formula>
@@ -24118,12 +24789,12 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="56" priority="64" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E207)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",E221)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E214">
+  <conditionalFormatting sqref="E229:E234">
     <cfRule type="containsText" dxfId="55" priority="57" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E214)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E229)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
       <formula>"dn"</formula>
@@ -24132,12 +24803,12 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="52" priority="60" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E214)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",E229)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E221">
+  <conditionalFormatting sqref="E228">
     <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E221)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E228)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
       <formula>"dn"</formula>
@@ -24146,12 +24817,12 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="56" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E221)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",E228)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E229:E234">
+  <conditionalFormatting sqref="E235">
     <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E229)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E235)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>"dn"</formula>
@@ -24160,12 +24831,12 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E229)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",E235)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E228">
+  <conditionalFormatting sqref="E236:E241">
     <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E228)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E236)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>"dn"</formula>
@@ -24174,12 +24845,12 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="48" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E228)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",E236)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E235">
+  <conditionalFormatting sqref="E242">
     <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E235)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E242)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>"dn"</formula>
@@ -24188,12 +24859,12 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="44" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E235)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",E242)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E236:E241">
+  <conditionalFormatting sqref="E249:E254">
     <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E236)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E249)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>"dn"</formula>
@@ -24202,12 +24873,12 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E236)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",E249)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E242">
+  <conditionalFormatting sqref="E255:E260">
     <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E242)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E255)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"dn"</formula>
@@ -24216,12 +24887,12 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="36" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E242)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",E255)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E249:E254">
+  <conditionalFormatting sqref="E164">
     <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E249)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E164)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"dn"</formula>
@@ -24230,12 +24901,12 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="32" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E249)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",E164)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E255:E260">
+  <conditionalFormatting sqref="E165">
     <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E255)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E165)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"dn"</formula>
@@ -24244,12 +24915,12 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E255)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",E165)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+  <conditionalFormatting sqref="E168">
     <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E164)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E168)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"dn"</formula>
@@ -24258,12 +24929,12 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E164)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",E168)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E165">
+  <conditionalFormatting sqref="E167">
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E165)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E167)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>"dn"</formula>
@@ -24272,40 +24943,40 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E165)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E168)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>"dn"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
-      <formula>"dcv"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E168)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E167">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E167)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>"dn"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
-      <formula>"dcv"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",E167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E272">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",E272)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",E272)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E314">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",E314)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",E314)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E316">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",E272)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",E316)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"dn"</formula>
@@ -24314,7 +24985,7 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",E272)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",E316)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
